--- a/results/mp/logistic/corona/confidence/168/desired-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/desired-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="89">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,40 +40,40 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>crisis</t>
+    <t>died</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>drop</t>
+    <t>low</t>
   </si>
   <si>
     <t>avoid</t>
@@ -85,9 +85,6 @@
     <t>no</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -103,9 +100,15 @@
     <t>of</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
     <t>the</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>to</t>
   </si>
   <si>
@@ -121,154 +124,163 @@
     <t>free</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>giving</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>helping</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>our</t>
+    <t>you</t>
+  </si>
+  <si>
+    <t>stay</t>
   </si>
   <si>
     <t>your</t>
   </si>
   <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>are</t>
+    <t>!</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>i</t>
   </si>
   <si>
     <t>for</t>
   </si>
   <si>
-    <t>and</t>
-  </si>
-  <si>
     <t>,</t>
   </si>
   <si>
-    <t>corona</t>
-  </si>
-  <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>in</t>
   </si>
 </sst>
 </file>
@@ -626,7 +638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -634,10 +646,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -695,13 +707,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8648648648648649</v>
+        <v>0.8458904109589042</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>247</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>247</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -713,10 +725,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -745,13 +757,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8529411764705882</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -763,31 +775,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="L4">
+        <v>115</v>
+      </c>
+      <c r="M4">
+        <v>115</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>5</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4">
-        <v>0.9666666666666667</v>
-      </c>
-      <c r="L4">
-        <v>116</v>
-      </c>
-      <c r="M4">
-        <v>116</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -795,13 +807,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8421052631578947</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -813,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K5">
-        <v>0.9302325581395349</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -845,13 +857,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8275862068965517</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -863,19 +875,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K6">
-        <v>0.9230769230769231</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -895,13 +907,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8116438356164384</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="C7">
-        <v>237</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>237</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -913,19 +925,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K7">
-        <v>0.9166666666666666</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L7">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M7">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -937,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -945,13 +957,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.75</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -963,19 +975,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K8">
         <v>0.9090909090909091</v>
       </c>
       <c r="L8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -987,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -995,13 +1007,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7333333333333333</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1013,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K9">
-        <v>0.9090909090909091</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1037,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1045,13 +1057,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7307692307692307</v>
+        <v>0.6084656084656085</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1063,19 +1075,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K10">
-        <v>0.9033942558746736</v>
+        <v>0.890625</v>
       </c>
       <c r="L10">
-        <v>346</v>
+        <v>114</v>
       </c>
       <c r="M10">
-        <v>346</v>
+        <v>114</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1087,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1095,13 +1107,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6190476190476191</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="C11">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1113,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K11">
-        <v>0.8983050847457628</v>
+        <v>0.8877284595300261</v>
       </c>
       <c r="L11">
-        <v>53</v>
+        <v>340</v>
       </c>
       <c r="M11">
-        <v>53</v>
+        <v>340</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1137,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1166,16 +1178,16 @@
         <v>229</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K12">
-        <v>0.8928571428571429</v>
+        <v>0.8873239436619719</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="M12">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1187,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1195,13 +1207,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5490196078431373</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="C13">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1213,19 +1225,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K13">
-        <v>0.890625</v>
+        <v>0.8773584905660378</v>
       </c>
       <c r="L13">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="M13">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1237,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1245,13 +1257,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3728813559322034</v>
+        <v>0.4026845637583892</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="D14">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1263,19 +1275,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K14">
-        <v>0.8888888888888888</v>
+        <v>0.875</v>
       </c>
       <c r="L14">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="M14">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1287,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1295,13 +1307,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3454545454545455</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1313,19 +1325,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K15">
-        <v>0.8802816901408451</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L15">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="M15">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1337,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1366,16 +1378,16 @@
         <v>50</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>0.875</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="L16">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="M16">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1387,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1395,13 +1407,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3027777777777778</v>
+        <v>0.2972222222222222</v>
       </c>
       <c r="C17">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D17">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1413,19 +1425,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K17">
-        <v>0.8679245283018868</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L17">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="M17">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1437,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1445,13 +1457,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.302013422818792</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="C18">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D18">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1463,10 +1475,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>104</v>
+        <v>220</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K18">
         <v>0.8448275862068966</v>
@@ -1495,13 +1507,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.1349206349206349</v>
+        <v>0.1018766756032172</v>
       </c>
       <c r="C19">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D19">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1513,19 +1525,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>218</v>
+        <v>335</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K19">
-        <v>0.8297872340425532</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L19">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="M19">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1537,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1545,28 +1557,28 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.1072386058981233</v>
+        <v>0.01553900938815151</v>
       </c>
       <c r="C20">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D20">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>333</v>
+        <v>3041</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K20">
         <v>0.8292682926829268</v>
@@ -1595,37 +1607,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01193933526944176</v>
+        <v>0.01370510396975425</v>
       </c>
       <c r="C21">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D21">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E21">
-        <v>0.18</v>
+        <v>0.48</v>
       </c>
       <c r="F21">
-        <v>0.8200000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>3062</v>
+        <v>2087</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K21">
-        <v>0.8214285714285714</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L21">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1637,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1645,28 +1657,28 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.01081335213916314</v>
+        <v>0.01270110076206605</v>
       </c>
       <c r="C22">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D22">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E22">
-        <v>0.41</v>
+        <v>0.36</v>
       </c>
       <c r="F22">
-        <v>0.5900000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>2104</v>
+        <v>2332</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K22">
         <v>0.8205128205128205</v>
@@ -1675,16 +1687,16 @@
         <v>32</v>
       </c>
       <c r="M22">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
         <v>7</v>
@@ -1695,37 +1707,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.008023648648648648</v>
+        <v>0.008752735229759299</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D23">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E23">
-        <v>0.37</v>
+        <v>0.55</v>
       </c>
       <c r="F23">
-        <v>0.63</v>
+        <v>0.45</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>2349</v>
+        <v>2265</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K23">
-        <v>0.8148148148148148</v>
+        <v>0.82</v>
       </c>
       <c r="L23">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="M23">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1737,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1745,37 +1757,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.00722233066562561</v>
+        <v>0.008040792312218083</v>
       </c>
       <c r="C24">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D24">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="E24">
-        <v>0.53</v>
+        <v>0.62</v>
       </c>
       <c r="F24">
-        <v>0.47</v>
+        <v>0.38</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>5086</v>
+        <v>5058</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K24">
-        <v>0.8125</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L24">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="M24">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1787,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1795,37 +1807,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.005127010020974132</v>
+        <v>0.0073085478233238</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="E25">
-        <v>0.63</v>
+        <v>0.7</v>
       </c>
       <c r="F25">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>4269</v>
+        <v>3124</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K25">
-        <v>0.78</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L25">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M25">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1837,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1845,28 +1857,28 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.003844597329016593</v>
+        <v>0.005614035087719298</v>
       </c>
       <c r="C26">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D26">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E26">
-        <v>0.74</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F26">
-        <v>0.26</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>4923</v>
+        <v>4251</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K26">
         <v>0.7777777777777778</v>
@@ -1891,17 +1903,41 @@
       </c>
     </row>
     <row r="27" spans="1:17">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>0.004263093788063338</v>
+      </c>
+      <c r="C27">
+        <v>21</v>
+      </c>
+      <c r="D27">
+        <v>91</v>
+      </c>
+      <c r="E27">
+        <v>0.77</v>
+      </c>
+      <c r="F27">
+        <v>0.23</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>4905</v>
+      </c>
       <c r="J27" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K27">
-        <v>0.775</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L27">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M27">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1913,12 +1949,12 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K28">
         <v>0.75</v>
@@ -1944,16 +1980,16 @@
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K29">
-        <v>0.7407407407407407</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L29">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M29">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1965,21 +2001,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K30">
-        <v>0.7382352941176471</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L30">
-        <v>251</v>
+        <v>20</v>
       </c>
       <c r="M30">
-        <v>251</v>
+        <v>20</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1991,21 +2027,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>89</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K31">
-        <v>0.7210884353741497</v>
+        <v>0.711764705882353</v>
       </c>
       <c r="L31">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="M31">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2014,50 +2050,50 @@
         <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K32">
-        <v>0.7196652719665272</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L32">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M32">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K33">
-        <v>0.7142857142857143</v>
+        <v>0.6966292134831461</v>
       </c>
       <c r="L33">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="M33">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2069,21 +2105,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K34">
-        <v>0.696969696969697</v>
+        <v>0.6915254237288135</v>
       </c>
       <c r="L34">
-        <v>23</v>
+        <v>204</v>
       </c>
       <c r="M34">
-        <v>23</v>
+        <v>204</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2095,21 +2131,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>10</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K35">
-        <v>0.6914893617021277</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L35">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M35">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2121,21 +2157,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K36">
-        <v>0.6615384615384615</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L36">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="M36">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2147,21 +2183,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K37">
-        <v>0.651685393258427</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="L37">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="M37">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2173,21 +2209,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K38">
-        <v>0.6142857142857143</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L38">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="M38">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2199,21 +2235,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K39">
-        <v>0.5555555555555556</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L39">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="M39">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2225,47 +2261,47 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K40">
-        <v>0.5490196078431373</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="L40">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M40">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K41">
-        <v>0.5384615384615384</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="L41">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="M41">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2277,21 +2313,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K42">
-        <v>0.5</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L42">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M42">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2303,21 +2339,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K43">
-        <v>0.4657534246575342</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L43">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M43">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2329,21 +2365,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K44">
-        <v>0.3728813559322034</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L44">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M44">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2355,21 +2391,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K45">
-        <v>0.34375</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="L45">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M45">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2381,21 +2417,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K46">
-        <v>0.05980861244019139</v>
+        <v>0.3125</v>
       </c>
       <c r="L46">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M46">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2407,293 +2443,449 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>393</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K47">
-        <v>0.05118829981718465</v>
+        <v>0.06187290969899666</v>
       </c>
       <c r="L47">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="M47">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>519</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K48">
-        <v>0.03842940685045948</v>
+        <v>0.06168831168831169</v>
       </c>
       <c r="L48">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="M48">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="N48">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>1151</v>
+        <v>289</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K49">
-        <v>0.01792673421667966</v>
+        <v>0.05494505494505494</v>
       </c>
       <c r="L49">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M49">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N49">
-        <v>0.79</v>
+        <v>0.97</v>
       </c>
       <c r="O49">
-        <v>0.21</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>1260</v>
+        <v>516</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K50">
-        <v>0.01766561514195584</v>
+        <v>0.02848423194303154</v>
       </c>
       <c r="L50">
         <v>28</v>
       </c>
       <c r="M50">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N50">
-        <v>0.76</v>
+        <v>0.82</v>
       </c>
       <c r="O50">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>1557</v>
+        <v>955</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K51">
-        <v>0.01652271873826511</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="L51">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="M51">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="N51">
-        <v>0.8100000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="O51">
-        <v>0.1899999999999999</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>2619</v>
+        <v>875</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K52">
+        <v>0.02557352388115833</v>
+      </c>
+      <c r="L52">
+        <v>68</v>
+      </c>
+      <c r="M52">
         <v>82</v>
       </c>
-      <c r="K52">
-        <v>0.01313628899835796</v>
-      </c>
-      <c r="L52">
-        <v>32</v>
-      </c>
-      <c r="M52">
-        <v>41</v>
-      </c>
       <c r="N52">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
       <c r="O52">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>2404</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="K53">
-        <v>0.0108499095840868</v>
+        <v>0.02211538461538462</v>
       </c>
       <c r="L53">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="M53">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="N53">
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>4923</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K54">
-        <v>0.0103480714957667</v>
+        <v>0.02149178255372946</v>
       </c>
       <c r="L54">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M54">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N54">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="O54">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>3156</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="K55">
-        <v>0.009205020920502092</v>
+        <v>0.01699181875393329</v>
       </c>
       <c r="L55">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="M55">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="N55">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
       <c r="O55">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>2368</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="K56">
-        <v>0.008592661402693916</v>
+        <v>0.01645413410119292</v>
       </c>
       <c r="L56">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M56">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="N56">
-        <v>0.63</v>
+        <v>0.74</v>
       </c>
       <c r="O56">
-        <v>0.37</v>
+        <v>0.26</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>4269</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K57">
+        <v>0.01548117154811715</v>
+      </c>
+      <c r="L57">
+        <v>37</v>
+      </c>
+      <c r="M57">
+        <v>41</v>
+      </c>
+      <c r="N57">
+        <v>0.9</v>
+      </c>
+      <c r="O57">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K58">
+        <v>0.01407035175879397</v>
+      </c>
+      <c r="L58">
+        <v>70</v>
+      </c>
+      <c r="M58">
+        <v>91</v>
+      </c>
+      <c r="N58">
+        <v>0.77</v>
+      </c>
+      <c r="O58">
+        <v>0.23</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>4905</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K57">
-        <v>0.008190327613104524</v>
-      </c>
-      <c r="L57">
-        <v>42</v>
-      </c>
-      <c r="M57">
-        <v>79</v>
-      </c>
-      <c r="N57">
-        <v>0.53</v>
-      </c>
-      <c r="O57">
-        <v>0.47</v>
-      </c>
-      <c r="P57" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q57">
-        <v>5086</v>
+      <c r="K59">
+        <v>0.01288056206088993</v>
+      </c>
+      <c r="L59">
+        <v>66</v>
+      </c>
+      <c r="M59">
+        <v>107</v>
+      </c>
+      <c r="N59">
+        <v>0.62</v>
+      </c>
+      <c r="O59">
+        <v>0.38</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>5058</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K60">
+        <v>0.01277199621570482</v>
+      </c>
+      <c r="L60">
+        <v>27</v>
+      </c>
+      <c r="M60">
+        <v>56</v>
+      </c>
+      <c r="N60">
+        <v>0.48</v>
+      </c>
+      <c r="O60">
+        <v>0.52</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K61">
+        <v>0.01231412639405204</v>
+      </c>
+      <c r="L61">
+        <v>53</v>
+      </c>
+      <c r="M61">
+        <v>77</v>
+      </c>
+      <c r="N61">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O61">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K62">
+        <v>0.01120448179271709</v>
+      </c>
+      <c r="L62">
+        <v>24</v>
+      </c>
+      <c r="M62">
+        <v>40</v>
+      </c>
+      <c r="N62">
+        <v>0.6</v>
+      </c>
+      <c r="O62">
+        <v>0.4</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K63">
+        <v>0.01048492791612058</v>
+      </c>
+      <c r="L63">
+        <v>24</v>
+      </c>
+      <c r="M63">
+        <v>44</v>
+      </c>
+      <c r="N63">
+        <v>0.55</v>
+      </c>
+      <c r="O63">
+        <v>0.45</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>2265</v>
       </c>
     </row>
   </sheetData>
